--- a/team_specific_matrix/Texas St._B.xlsx
+++ b/team_specific_matrix/Texas St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1749049429657795</v>
+        <v>0.1722054380664653</v>
       </c>
       <c r="C2">
-        <v>0.5817490494296578</v>
+        <v>0.5891238670694864</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.006042296072507553</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1406844106463878</v>
+        <v>0.1359516616314199</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1026615969581749</v>
+        <v>0.09667673716012085</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01298701298701299</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01298701298701299</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7207792207792207</v>
+        <v>0.7295918367346939</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2532467532467532</v>
+        <v>0.2295918367346939</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04347826086956522</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7391304347826086</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2173913043478261</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08522727272727272</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01704545454545454</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07954545454545454</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2159090909090909</v>
+        <v>0.2350230414746544</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01136363636363636</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1761363636363636</v>
+        <v>0.1566820276497696</v>
       </c>
       <c r="R6">
-        <v>0.04545454545454546</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="S6">
-        <v>0.3693181818181818</v>
+        <v>0.3640552995391705</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08536585365853659</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006097560975609756</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04878048780487805</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1036585365853658</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01829268292682927</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2195121951219512</v>
+        <v>0.1971153846153846</v>
       </c>
       <c r="R7">
-        <v>0.07317073170731707</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="S7">
-        <v>0.4451219512195122</v>
+        <v>0.4134615384615384</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1235697940503433</v>
+        <v>0.1233140655105973</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004576659038901602</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07551487414187644</v>
+        <v>0.06936416184971098</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.102974828375286</v>
+        <v>0.1136801541425819</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01830663615560641</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1739130434782609</v>
+        <v>0.1695568400770713</v>
       </c>
       <c r="R8">
-        <v>0.09153318077803203</v>
+        <v>0.0905587668593449</v>
       </c>
       <c r="S8">
-        <v>0.4096109839816934</v>
+        <v>0.4104046242774567</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1182795698924731</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02150537634408602</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07526881720430108</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06451612903225806</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04301075268817205</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1075268817204301</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="R9">
-        <v>0.1182795698924731</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="S9">
-        <v>0.4516129032258064</v>
+        <v>0.4385964912280702</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1146744412050534</v>
+        <v>0.1164225134926754</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0184645286686103</v>
+        <v>0.02235929067077872</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06316812439261418</v>
+        <v>0.06168080185042406</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1263362487852284</v>
+        <v>0.1441788743253662</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007774538386783284</v>
+        <v>0.01002313030069391</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2380952380952381</v>
+        <v>0.2259059367771781</v>
       </c>
       <c r="R10">
-        <v>0.06219630709426627</v>
+        <v>0.06245181187355436</v>
       </c>
       <c r="S10">
-        <v>0.369290573372206</v>
+        <v>0.3569776407093292</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1576923076923077</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1269230769230769</v>
+        <v>0.1121212121212121</v>
       </c>
       <c r="K11">
-        <v>0.2346153846153846</v>
+        <v>0.2393939393939394</v>
       </c>
       <c r="L11">
-        <v>0.4769230769230769</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003846153846153846</v>
+        <v>0.00909090909090909</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7954545454545454</v>
+        <v>0.7891566265060241</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1363636363636364</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="L12">
-        <v>0.04545454545454546</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02272727272727273</v>
+        <v>0.03012048192771084</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05555555555555555</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005813953488372093</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1976744186046512</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="I15">
-        <v>0.01744186046511628</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="J15">
-        <v>0.3837209302325582</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="K15">
-        <v>0.06976744186046512</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01162790697674419</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04069767441860465</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2732558139534884</v>
+        <v>0.2745098039215687</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01875</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="I16">
         <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.4278846153846154</v>
       </c>
       <c r="K16">
-        <v>0.10625</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.025</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="N16">
-        <v>0.00625</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="O16">
-        <v>0.0375</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.14375</v>
+        <v>0.1634615384615385</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0178117048346056</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2315521628498728</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="I17">
-        <v>0.05343511450381679</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="J17">
-        <v>0.4122137404580153</v>
+        <v>0.4245689655172414</v>
       </c>
       <c r="K17">
-        <v>0.08905852417302799</v>
+        <v>0.09267241379310345</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01526717557251908</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N17">
-        <v>0.002544529262086514</v>
+        <v>0.002155172413793103</v>
       </c>
       <c r="O17">
-        <v>0.0737913486005089</v>
+        <v>0.07758620689655173</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1043256997455471</v>
+        <v>0.09698275862068965</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02272727272727273</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2121212121212121</v>
+        <v>0.1856287425149701</v>
       </c>
       <c r="I18">
-        <v>0.0303030303030303</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="J18">
-        <v>0.4318181818181818</v>
+        <v>0.4491017964071856</v>
       </c>
       <c r="K18">
-        <v>0.08333333333333333</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02272727272727273</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08333333333333333</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1136363636363636</v>
+        <v>0.1077844311377246</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01234567901234568</v>
+        <v>0.0132398753894081</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2431149097815765</v>
+        <v>0.2406542056074766</v>
       </c>
       <c r="I19">
-        <v>0.05223171889838556</v>
+        <v>0.04906542056074766</v>
       </c>
       <c r="J19">
-        <v>0.3665716999050332</v>
+        <v>0.3637071651090343</v>
       </c>
       <c r="K19">
-        <v>0.1187084520417854</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01899335232668566</v>
+        <v>0.02180685358255452</v>
       </c>
       <c r="N19">
-        <v>0.002849002849002849</v>
+        <v>0.002336448598130841</v>
       </c>
       <c r="O19">
-        <v>0.06647673314339982</v>
+        <v>0.06386292834890965</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1187084520417854</v>
+        <v>0.1238317757009346</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Texas St._B.xlsx
+++ b/team_specific_matrix/Texas St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1722054380664653</v>
+        <v>0.1752021563342318</v>
       </c>
       <c r="C2">
-        <v>0.5891238670694864</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006042296072507553</v>
+        <v>0.005390835579514825</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1359516616314199</v>
+        <v>0.137466307277628</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09667673716012085</v>
+        <v>0.09703504043126684</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01020408163265306</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03061224489795918</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7295918367346939</v>
+        <v>0.7431192660550459</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2295918367346939</v>
+        <v>0.2201834862385321</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05405405405405406</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7567567567567568</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1891891891891892</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08294930875576037</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0184331797235023</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06912442396313365</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2350230414746544</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01382488479262673</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1566820276497696</v>
+        <v>0.1554621848739496</v>
       </c>
       <c r="R6">
-        <v>0.05990783410138249</v>
+        <v>0.0546218487394958</v>
       </c>
       <c r="S6">
-        <v>0.3640552995391705</v>
+        <v>0.3739495798319328</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09615384615384616</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01442307692307692</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0673076923076923</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1105769230769231</v>
+        <v>0.1324786324786325</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01923076923076923</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1971153846153846</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="R7">
-        <v>0.08173076923076923</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S7">
-        <v>0.4134615384615384</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1233140655105973</v>
+        <v>0.1241258741258741</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005780346820809248</v>
+        <v>0.005244755244755245</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06936416184971098</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1136801541425819</v>
+        <v>0.1101398601398601</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01734104046242774</v>
+        <v>0.01573426573426574</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1695568400770713</v>
+        <v>0.1660839160839161</v>
       </c>
       <c r="R8">
-        <v>0.0905587668593449</v>
+        <v>0.09265734265734266</v>
       </c>
       <c r="S8">
-        <v>0.4104046242774567</v>
+        <v>0.4178321678321678</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.131578947368421</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01754385964912281</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08771929824561403</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06140350877192982</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03508771929824561</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1140350877192982</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="R9">
-        <v>0.1140350877192982</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="S9">
-        <v>0.4385964912280702</v>
+        <v>0.4330708661417323</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1164225134926754</v>
+        <v>0.1164574616457462</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02235929067077872</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06168080185042406</v>
+        <v>0.06136680613668061</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1441788743253662</v>
+        <v>0.1408647140864714</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01002313030069391</v>
+        <v>0.0104602510460251</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2259059367771781</v>
+        <v>0.2231520223152022</v>
       </c>
       <c r="R10">
-        <v>0.06245181187355436</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="S10">
-        <v>0.3569776407093292</v>
+        <v>0.3640167364016736</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1666666666666667</v>
+        <v>0.1598915989159892</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1121212121212121</v>
+        <v>0.1084010840108401</v>
       </c>
       <c r="K11">
-        <v>0.2393939393939394</v>
+        <v>0.2330623306233062</v>
       </c>
       <c r="L11">
-        <v>0.4727272727272727</v>
+        <v>0.4905149051490515</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00909090909090909</v>
+        <v>0.008130081300813009</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7891566265060241</v>
+        <v>0.7864583333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1325301204819277</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="K12">
-        <v>0.006024096385542169</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="L12">
-        <v>0.04216867469879518</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03012048192771084</v>
+        <v>0.03645833333333334</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4583333333333333</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.125</v>
+        <v>0.1090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004901960784313725</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.196078431372549</v>
+        <v>0.2088888888888889</v>
       </c>
       <c r="I15">
-        <v>0.01470588235294118</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="J15">
-        <v>0.392156862745098</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="K15">
-        <v>0.07352941176470588</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009803921568627451</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03431372549019608</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2745098039215687</v>
+        <v>0.2533333333333334</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01923076923076923</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1634615384615385</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="I16">
-        <v>0.0625</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="J16">
-        <v>0.4278846153846154</v>
+        <v>0.4212765957446808</v>
       </c>
       <c r="K16">
-        <v>0.1009615384615385</v>
+        <v>0.1106382978723404</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02884615384615385</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="N16">
-        <v>0.004807692307692308</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="O16">
-        <v>0.02884615384615385</v>
+        <v>0.03829787234042553</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1634615384615385</v>
+        <v>0.1574468085106383</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02155172413793104</v>
+        <v>0.01972386587771203</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2155172413793103</v>
+        <v>0.2149901380670611</v>
       </c>
       <c r="I17">
-        <v>0.05172413793103448</v>
+        <v>0.04930966469428008</v>
       </c>
       <c r="J17">
-        <v>0.4245689655172414</v>
+        <v>0.4201183431952663</v>
       </c>
       <c r="K17">
-        <v>0.09267241379310345</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01724137931034483</v>
+        <v>0.01577909270216963</v>
       </c>
       <c r="N17">
-        <v>0.002155172413793103</v>
+        <v>0.003944773175542407</v>
       </c>
       <c r="O17">
-        <v>0.07758620689655173</v>
+        <v>0.07889546351084813</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09698275862068965</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01796407185628742</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1856287425149701</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="I18">
-        <v>0.0658682634730539</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="J18">
-        <v>0.4491017964071856</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="K18">
-        <v>0.08383233532934131</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02395209580838323</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0658682634730539</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1077844311377246</v>
+        <v>0.1147540983606557</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0132398753894081</v>
+        <v>0.01394700139470014</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2406542056074766</v>
+        <v>0.2412831241283124</v>
       </c>
       <c r="I19">
-        <v>0.04906542056074766</v>
+        <v>0.04951185495118549</v>
       </c>
       <c r="J19">
-        <v>0.3637071651090343</v>
+        <v>0.3619246861924686</v>
       </c>
       <c r="K19">
-        <v>0.1214953271028037</v>
+        <v>0.1220362622036262</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02180685358255452</v>
+        <v>0.02301255230125523</v>
       </c>
       <c r="N19">
-        <v>0.002336448598130841</v>
+        <v>0.002789400278940028</v>
       </c>
       <c r="O19">
-        <v>0.06386292834890965</v>
+        <v>0.06066945606694561</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1238317757009346</v>
+        <v>0.1248256624825663</v>
       </c>
     </row>
   </sheetData>
